--- a/data/trans_bre/P1802_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1802_2016_2023-Estudios-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>6.567010231826526</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.869138645718038</v>
+        <v>1.869138645718041</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.3924569780719764</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.1017398274033853</v>
+        <v>0.1017398274033855</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.704394628186111</v>
+        <v>2.502366806776356</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.148691422592666</v>
+        <v>-2.079746286445019</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.1443129742403911</v>
+        <v>0.132885174483582</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1061139868138919</v>
+        <v>-0.09708727529328728</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.31694212955492</v>
+        <v>10.74965047290613</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.401980909404564</v>
+        <v>5.589384313676096</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.6860741458029364</v>
+        <v>0.7227283877793562</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.330873172203943</v>
+        <v>0.3322548576533263</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>3.703725315089096</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.117011283856605</v>
+        <v>3.117011283856602</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2716030374392974</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.2153494431340243</v>
+        <v>0.215349443134024</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.364862160978355</v>
+        <v>1.561462756228684</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.01087190415666</v>
+        <v>0.8695189031786933</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.09166945852366493</v>
+        <v>0.1098312143033991</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06443546969401324</v>
+        <v>0.05700782787793063</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.938215951295923</v>
+        <v>6.178107813150586</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.257892612944092</v>
+        <v>5.330481457907286</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4626653908805706</v>
+        <v>0.487996136215225</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3964268747775916</v>
+        <v>0.4064498779918874</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>3.061764856565749</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>5.741233960697895</v>
+        <v>5.7412339606979</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.2271539013941852</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.3885831156081361</v>
+        <v>0.3885831156081366</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.097717901052398</v>
+        <v>-1.413932237600043</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.102311998740339</v>
+        <v>2.021377038290022</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.07234780500871826</v>
+        <v>-0.0844874420544427</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.124043069682887</v>
+        <v>0.1190036575683516</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.685785403713252</v>
+        <v>7.960785428062635</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.438623503564363</v>
+        <v>9.549875976664</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.7103218087958872</v>
+        <v>0.6890431118763101</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.739428382363596</v>
+        <v>0.7647313351870965</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>4.591684542990179</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.576333820990665</v>
+        <v>3.576333820990668</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.3210391167462786</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.2356623214359127</v>
+        <v>0.2356623214359129</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.753324681939596</v>
+        <v>2.75329314820331</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.809994145684288</v>
+        <v>1.801981921308564</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1898208361906719</v>
+        <v>0.184230501599912</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1028878167826279</v>
+        <v>0.1162194021004216</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.461436947262246</v>
+        <v>6.354355088624844</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.167991055933056</v>
+        <v>5.218865918451052</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4893917754632029</v>
+        <v>0.4734785380932652</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3597561522380746</v>
+        <v>0.3699131048520907</v>
       </c>
     </row>
     <row r="16">
